--- a/z0bug_odoo/build/lib/z0bug_odoo/data/res_bank.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/res_bank.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t xml:space="preserve">CRTTITMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banque de Suisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUISCHMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.ch</t>
   </si>
 </sst>
 </file>
@@ -112,6 +124,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -197,17 +210,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
   </cols>
   <sheetData>
@@ -321,6 +334,20 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
